--- a/fastqFiles/fastq_3067.xlsx
+++ b/fastqFiles/fastq_3067.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A341FAE-81D9-E54B-B13F-ACE5CF0FDC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -37,9 +43,6 @@
     <t>08.02.18</t>
   </si>
   <si>
-    <t>Retrofitted_3067</t>
-  </si>
-  <si>
     <t>sequence/run_3067_samples/3067_Brent_HLB1_GTAC_50_CAATATCATCTC_S40_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -68,13 +71,16 @@
   </si>
   <si>
     <t>sequence/run_3067_samples/3067_Brent_HLB10_GTAC_59_AGTTATGATCTC_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -183,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,9 +229,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,6 +281,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,14 +474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="B3:B11 E2:E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,12 +503,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -465,18 +517,18 @@
         <v>3067</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -485,18 +537,18 @@
         <v>3067</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -505,18 +557,18 @@
         <v>3067</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -525,18 +577,18 @@
         <v>3067</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -545,38 +597,38 @@
         <v>3067</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3067</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>3067</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -585,18 +637,18 @@
         <v>3067</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -605,18 +657,18 @@
         <v>3067</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -625,18 +677,18 @@
         <v>3067</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -645,10 +697,10 @@
         <v>3067</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_3067.xlsx
+++ b/fastqFiles/fastq_3067.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A341FAE-81D9-E54B-B13F-ACE5CF0FDC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091A4774-A6FA-4E46-B6D5-F88069639C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>libraryDate</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B11 E2:E11"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -517,7 +520,7 @@
         <v>3067</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -537,7 +540,7 @@
         <v>3067</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -557,7 +560,7 @@
         <v>3067</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -577,7 +580,7 @@
         <v>3067</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -597,7 +600,7 @@
         <v>3067</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -617,7 +620,7 @@
         <v>3067</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -637,7 +640,7 @@
         <v>3067</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -657,7 +660,7 @@
         <v>3067</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -677,7 +680,7 @@
         <v>3067</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -697,7 +700,7 @@
         <v>3067</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>

--- a/fastqFiles/fastq_3067.xlsx
+++ b/fastqFiles/fastq_3067.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/fastqFiles/fastq_3067.xlsx
+++ b/fastqFiles/fastq_3067.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -64,7 +64,13 @@
     <t xml:space="preserve">Unusual -- all genotype failures. Possible mislabelling</t>
   </si>
   <si>
+    <t xml:space="preserve">[128] </t>
+  </si>
+  <si>
     <t xml:space="preserve">3067_Brent_HLB2_GTAC_51_CTCCCGAATCTC_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,128]</t>
   </si>
   <si>
     <t xml:space="preserve">3067_Brent_HLB3_GTAC_52_GCCGTTTATCTC_S42_R1_001.fastq.gz</t>
@@ -192,7 +198,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,8 +260,8 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
+      <c r="I2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +281,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
@@ -283,11 +289,11 @@
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -304,7 +310,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>13</v>
@@ -312,11 +318,11 @@
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -333,7 +339,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>13</v>
@@ -341,11 +347,11 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -362,7 +368,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>13</v>
@@ -370,11 +376,11 @@
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -391,7 +397,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>13</v>
@@ -399,11 +405,11 @@
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -420,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>13</v>
@@ -428,11 +434,11 @@
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -449,7 +455,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>13</v>
@@ -457,11 +463,11 @@
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -478,19 +484,19 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
@@ -507,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
@@ -515,8 +521,8 @@
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>4128</v>
+      <c r="I11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
